--- a/functional_tests/result/Results.xlsx
+++ b/functional_tests/result/Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_6DD495187B343BF9F79E5ECFA381F5CE34757F19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6F3BA0-F25A-4F01-9BB0-6B8D8955390C}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_0C43383BE54FB6C6AB0D468A379DAAECC49C739A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC8E8412-8966-4D90-B9C2-3295D54C3781}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="97">
   <si>
     <t>Project Name</t>
   </si>
@@ -107,9 +107,9 @@
     <t>Check if the city name is displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Valid API Response
-Test Data</t>
+    <t>Valid API Response
+Test Data
+Selenium web driver</t>
   </si>
   <si>
     <t>City id: 2643743
@@ -126,10 +126,6 @@
   </si>
   <si>
     <t>Check if the temperature reading is accurate in degree celcius(°C) for London</t>
-  </si>
-  <si>
-    <t>Valid API Response
-Test Data</t>
   </si>
   <si>
     <t>TS-GB-003</t>
@@ -786,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -800,7 +796,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -925,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>26</v>
@@ -937,19 +933,19 @@
     </row>
     <row r="11" spans="1:10" ht="75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>26</v>
@@ -961,19 +957,19 @@
     </row>
     <row r="12" spans="1:10" ht="66" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>26</v>
@@ -985,19 +981,19 @@
     </row>
     <row r="13" spans="1:10" ht="74.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>26</v>
@@ -1009,19 +1005,19 @@
     </row>
     <row r="14" spans="1:10" ht="75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>26</v>
@@ -1090,7 +1086,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,7 +1099,7 @@
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1247,10 +1243,10 @@
     </row>
     <row r="9" spans="1:10" ht="74.25" customHeight="1">
       <c r="A9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>23</v>
@@ -1259,10 +1255,10 @@
         <v>24</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1271,22 +1267,22 @@
     </row>
     <row r="10" spans="1:10" ht="81" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1295,22 +1291,22 @@
     </row>
     <row r="11" spans="1:10" ht="68.25" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1319,22 +1315,22 @@
     </row>
     <row r="12" spans="1:10" ht="80.25" customHeight="1">
       <c r="A12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="E12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1343,22 +1339,22 @@
     </row>
     <row r="13" spans="1:10" ht="87" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1367,22 +1363,22 @@
     </row>
     <row r="14" spans="1:10" ht="93" customHeight="1">
       <c r="A14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="E14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1398,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,10 +1496,10 @@
     </row>
     <row r="9" spans="1:10" ht="77.25" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
@@ -1512,10 +1508,10 @@
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1524,22 +1520,22 @@
     </row>
     <row r="10" spans="1:10" ht="78" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1548,22 +1544,22 @@
     </row>
     <row r="11" spans="1:10" ht="77.25" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3"/>
@@ -1572,22 +1568,22 @@
     </row>
     <row r="12" spans="1:10" ht="90" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3"/>
@@ -1596,22 +1592,22 @@
     </row>
     <row r="13" spans="1:10" ht="103.5" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="3"/>
@@ -1620,22 +1616,22 @@
     </row>
     <row r="14" spans="1:10" ht="102" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="3"/>
@@ -1651,21 +1647,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1752,12 +1748,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="83.25" customHeight="1">
+    <row r="9" spans="1:10" ht="75" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
@@ -1766,106 +1762,106 @@
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="82.5" customHeight="1">
+    <row r="10" spans="1:10" ht="77.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="108.75" customHeight="1">
+    <row r="11" spans="1:10" ht="86.25" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="89.25" customHeight="1">
+    <row r="12" spans="1:10" ht="79.5" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="117" customHeight="1">
+    <row r="13" spans="1:10" ht="86.25" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1874,22 +1870,22 @@
     </row>
     <row r="14" spans="1:10" ht="81" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2196,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2299,10 +2295,10 @@
     </row>
     <row r="9" spans="1:10" ht="85.5" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
@@ -2311,34 +2307,34 @@
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="95.25" customHeight="1">
+    <row r="10" spans="1:10" ht="84" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2347,94 +2343,94 @@
     </row>
     <row r="11" spans="1:10" ht="81.75" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="101.25" customHeight="1">
+    <row r="12" spans="1:10" ht="77.25" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="90.75" customHeight="1">
+    <row r="13" spans="1:10" ht="81.75" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="75" customHeight="1">
+    <row r="14" spans="1:10" ht="81" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
